--- a/Java-Selenium-M4/data/testData.xlsx
+++ b/Java-Selenium-M4/data/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14085" windowHeight="6135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ipl" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="invalidcreds" sheetId="3" r:id="rId3"/>
     <sheet name="buyproductdetails" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -587,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
